--- a/Code/Results/Cases/Case_9_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.331356477932445</v>
+        <v>3.07921552052386</v>
       </c>
       <c r="C2">
-        <v>0.5163904535291692</v>
+        <v>0.566943763645412</v>
       </c>
       <c r="D2">
-        <v>0.02942088942232068</v>
+        <v>0.03124787664737028</v>
       </c>
       <c r="E2">
-        <v>0.06303873069272647</v>
+        <v>0.05761523003515201</v>
       </c>
       <c r="F2">
-        <v>1.168102717686494</v>
+        <v>1.02257426484006</v>
       </c>
       <c r="G2">
-        <v>1.133726992626308</v>
+        <v>0.9435580250482047</v>
       </c>
       <c r="H2">
-        <v>1.842249550687569E-05</v>
+        <v>2.686251330041856E-06</v>
       </c>
       <c r="I2">
-        <v>0.0004543915811310306</v>
+        <v>0.0005382381451646268</v>
       </c>
       <c r="J2">
-        <v>0.7033471602138945</v>
+        <v>0.6617484341243056</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2731810173550784</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1741006692080092</v>
       </c>
       <c r="N2">
-        <v>0.3479857313312067</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7900194997745666</v>
+        <v>0.3597220439850446</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7725087985460029</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.902586223304695</v>
+        <v>2.692265518503518</v>
       </c>
       <c r="C3">
-        <v>0.4582668838741313</v>
+        <v>0.4977288369416613</v>
       </c>
       <c r="D3">
-        <v>0.0287160501136583</v>
+        <v>0.02971952848100656</v>
       </c>
       <c r="E3">
-        <v>0.05816345372097587</v>
+        <v>0.05374829452701757</v>
       </c>
       <c r="F3">
-        <v>1.06198414560356</v>
+        <v>0.9369945125757795</v>
       </c>
       <c r="G3">
-        <v>1.028786721770715</v>
+        <v>0.8632826688147617</v>
       </c>
       <c r="H3">
-        <v>0.00044275812335548</v>
+        <v>0.0002782237721268288</v>
       </c>
       <c r="I3">
-        <v>0.0008834623528208851</v>
+        <v>0.0007147405466896295</v>
       </c>
       <c r="J3">
-        <v>0.6584359109502032</v>
+        <v>0.6241644563135083</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2712257709220012</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.158685651762827</v>
       </c>
       <c r="N3">
-        <v>0.3051471359671325</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8217002114717307</v>
+        <v>0.3160458672252702</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7984846156124021</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.638998998521117</v>
+        <v>2.453677333358428</v>
       </c>
       <c r="C4">
-        <v>0.4228156749084917</v>
+        <v>0.4555937548889233</v>
       </c>
       <c r="D4">
-        <v>0.02826590655407202</v>
+        <v>0.0287761802323061</v>
       </c>
       <c r="E4">
-        <v>0.05515669251121835</v>
+        <v>0.05135141360447815</v>
       </c>
       <c r="F4">
-        <v>0.9975816078014219</v>
+        <v>0.8848572782760158</v>
       </c>
       <c r="G4">
-        <v>0.9650014885816773</v>
+        <v>0.8144961359010523</v>
       </c>
       <c r="H4">
-        <v>0.00100308114870673</v>
+        <v>0.0006883734348981374</v>
       </c>
       <c r="I4">
-        <v>0.001527619588442164</v>
+        <v>0.001116186605720326</v>
       </c>
       <c r="J4">
-        <v>0.6312748152478349</v>
+        <v>0.6010591700289609</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2698078265283499</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1500090383186325</v>
       </c>
       <c r="N4">
-        <v>0.2789144746957248</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8416722427824466</v>
+        <v>0.2892874826777216</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8150726524888903</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.529515079660371</v>
+        <v>2.354379448180225</v>
       </c>
       <c r="C5">
-        <v>0.4089048465359326</v>
+        <v>0.4390188975758065</v>
       </c>
       <c r="D5">
-        <v>0.0280928301740957</v>
+        <v>0.028414604896982</v>
       </c>
       <c r="E5">
-        <v>0.05388927636049878</v>
+        <v>0.05033594491852611</v>
       </c>
       <c r="F5">
-        <v>0.9703950960243901</v>
+        <v>0.8627052166850149</v>
       </c>
       <c r="G5">
-        <v>0.9378714577763247</v>
+        <v>0.7936026044328344</v>
       </c>
       <c r="H5">
-        <v>0.001304826895256461</v>
+        <v>0.000914557208621547</v>
       </c>
       <c r="I5">
-        <v>0.001953669632159816</v>
+        <v>0.001434396423662498</v>
       </c>
       <c r="J5">
-        <v>0.6196540583021175</v>
+        <v>0.5910428514314674</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2688310655176309</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.146427189937441</v>
       </c>
       <c r="N5">
-        <v>0.268295789392468</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8498305874899952</v>
+        <v>0.2784506196949934</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8220299779615328</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.50892615290644</v>
+        <v>2.335666188026096</v>
       </c>
       <c r="C6">
-        <v>0.4071949474514156</v>
+        <v>0.4369027471248046</v>
       </c>
       <c r="D6">
-        <v>0.02808205533015773</v>
+        <v>0.02838433063470447</v>
       </c>
       <c r="E6">
-        <v>0.0536329383135179</v>
+        <v>0.05012787933344942</v>
       </c>
       <c r="F6">
-        <v>0.9645319155585241</v>
+        <v>0.8578171324124213</v>
       </c>
       <c r="G6">
-        <v>0.9318102777629491</v>
+        <v>0.7887690831710472</v>
       </c>
       <c r="H6">
-        <v>0.001361925840927647</v>
+        <v>0.0009576433162450382</v>
       </c>
       <c r="I6">
-        <v>0.002126709164320673</v>
+        <v>0.001604057226295197</v>
       </c>
       <c r="J6">
-        <v>0.6169386401375476</v>
+        <v>0.5886578931990414</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.26824633860668</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1455497078750305</v>
       </c>
       <c r="N6">
-        <v>0.2666047428429437</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8510659527260191</v>
+        <v>0.2767208693326779</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8232492986862585</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.630935683230518</v>
+        <v>2.443609008097269</v>
       </c>
       <c r="C7">
-        <v>0.4242642972009776</v>
+        <v>0.4562304656834897</v>
       </c>
       <c r="D7">
-        <v>0.02831383867771464</v>
+        <v>0.02890986464457868</v>
       </c>
       <c r="E7">
-        <v>0.05501505055519829</v>
+        <v>0.0512519922384449</v>
       </c>
       <c r="F7">
-        <v>0.9934967545001712</v>
+        <v>0.8791061855870481</v>
       </c>
       <c r="G7">
-        <v>0.9603537569936549</v>
+        <v>0.8144234918616178</v>
       </c>
       <c r="H7">
-        <v>0.001013271670600835</v>
+        <v>0.0006986207436998626</v>
       </c>
       <c r="I7">
-        <v>0.001780104798282167</v>
+        <v>0.001411517920359984</v>
       </c>
       <c r="J7">
-        <v>0.6289539771176749</v>
+        <v>0.5910106998970264</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2681757917962955</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.148776587464674</v>
       </c>
       <c r="N7">
-        <v>0.2789670601772087</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8414519838128109</v>
+        <v>0.2892039511902311</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8154337410873165</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.174736166427465</v>
+        <v>2.928925724627561</v>
       </c>
       <c r="C8">
-        <v>0.4984834714675515</v>
+        <v>0.5423878220483971</v>
       </c>
       <c r="D8">
-        <v>0.02925075717720915</v>
+        <v>0.03103286701010077</v>
       </c>
       <c r="E8">
-        <v>0.0611940304357308</v>
+        <v>0.0562168311303104</v>
       </c>
       <c r="F8">
-        <v>1.126395760456333</v>
+        <v>0.9814869988730663</v>
       </c>
       <c r="G8">
-        <v>1.09169678566812</v>
+        <v>0.9240559732682954</v>
       </c>
       <c r="H8">
-        <v>0.0001025023088006005</v>
+        <v>4.938729460080005E-05</v>
       </c>
       <c r="I8">
-        <v>0.0008064027620271474</v>
+        <v>0.0008777590106285871</v>
       </c>
       <c r="J8">
-        <v>0.6848968796613093</v>
+        <v>0.6200017375170717</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2696129275556487</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1661737844225186</v>
       </c>
       <c r="N8">
-        <v>0.3334585906734873</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.800475275705046</v>
+        <v>0.3444761049155289</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7821352393693104</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.25191813384896</v>
+        <v>3.894164576137939</v>
       </c>
       <c r="C9">
-        <v>0.6434624251841967</v>
+        <v>0.7147414331556661</v>
       </c>
       <c r="D9">
-        <v>0.03085484432751606</v>
+        <v>0.03479805853504558</v>
       </c>
       <c r="E9">
-        <v>0.07350234288514024</v>
+        <v>0.065940194056612</v>
       </c>
       <c r="F9">
-        <v>1.400721969902008</v>
+        <v>1.199910597370362</v>
       </c>
       <c r="G9">
-        <v>1.363145812267959</v>
+        <v>1.136212576031426</v>
       </c>
       <c r="H9">
-        <v>0.0008975296496356311</v>
+        <v>0.0008334421107460965</v>
       </c>
       <c r="I9">
-        <v>0.001826306975006631</v>
+        <v>0.001907074876879911</v>
       </c>
       <c r="J9">
-        <v>0.8022465353877806</v>
+        <v>0.7087030342185017</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2743910567957499</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2096344793509317</v>
       </c>
       <c r="N9">
-        <v>0.4407509087449597</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7249234836772116</v>
+        <v>0.453634210859434</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7212599313845232</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.009014441166528</v>
+        <v>4.554381128495891</v>
       </c>
       <c r="C10">
-        <v>0.7580692943710972</v>
+        <v>0.8441995124632342</v>
       </c>
       <c r="D10">
-        <v>0.03229910586571805</v>
+        <v>0.03849253145165221</v>
       </c>
       <c r="E10">
-        <v>0.07983383957849277</v>
+        <v>0.07086245683151127</v>
       </c>
       <c r="F10">
-        <v>1.58719335953549</v>
+        <v>1.334566552288791</v>
       </c>
       <c r="G10">
-        <v>1.543822678091345</v>
+        <v>1.300956874393876</v>
       </c>
       <c r="H10">
-        <v>0.003367966989045179</v>
+        <v>0.002909197613688352</v>
       </c>
       <c r="I10">
-        <v>0.004984094514904669</v>
+        <v>0.004504705641357631</v>
       </c>
       <c r="J10">
-        <v>0.8794585998677746</v>
+        <v>0.7197847025539374</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2704029859049513</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2385379565816876</v>
       </c>
       <c r="N10">
-        <v>0.4999852820999848</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6720699392389839</v>
+        <v>0.5129406697615764</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6842604569502484</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.060911182779705</v>
+        <v>4.584646879009824</v>
       </c>
       <c r="C11">
-        <v>0.8595188293471381</v>
+        <v>0.9373543330734435</v>
       </c>
       <c r="D11">
-        <v>0.03675123525724544</v>
+        <v>0.04646824831249674</v>
       </c>
       <c r="E11">
-        <v>0.06551142758027506</v>
+        <v>0.05941800781436912</v>
       </c>
       <c r="F11">
-        <v>1.504105943626627</v>
+        <v>1.240902907003061</v>
       </c>
       <c r="G11">
-        <v>1.433477546213965</v>
+        <v>1.260982126826605</v>
       </c>
       <c r="H11">
-        <v>0.02201095441601808</v>
+        <v>0.02143774853322356</v>
       </c>
       <c r="I11">
-        <v>0.006456401782508614</v>
+        <v>0.005818590599636408</v>
       </c>
       <c r="J11">
-        <v>0.8184797312165699</v>
+        <v>0.5840856671860308</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2330906894906661</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2112718994943776</v>
       </c>
       <c r="N11">
-        <v>0.3638206801579429</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6570409125636445</v>
+        <v>0.372602611497328</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7051298849548431</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.952720730699468</v>
+        <v>4.488503260738185</v>
       </c>
       <c r="C12">
-        <v>0.9210980538875333</v>
+        <v>0.9906919012915694</v>
       </c>
       <c r="D12">
-        <v>0.04123522602712981</v>
+        <v>0.05313035682934242</v>
       </c>
       <c r="E12">
-        <v>0.06123915183212736</v>
+        <v>0.05725328172091082</v>
       </c>
       <c r="F12">
-        <v>1.40167269231479</v>
+        <v>1.148021094488158</v>
       </c>
       <c r="G12">
-        <v>1.311903960410405</v>
+        <v>1.18374027820812</v>
       </c>
       <c r="H12">
-        <v>0.06040223231852337</v>
+        <v>0.05984182722935572</v>
       </c>
       <c r="I12">
-        <v>0.00653349303559736</v>
+        <v>0.005863332378519992</v>
       </c>
       <c r="J12">
-        <v>0.7553113214744371</v>
+        <v>0.5035757140622508</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2073339038120352</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1862027944178664</v>
       </c>
       <c r="N12">
-        <v>0.2558212355972529</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6680885035373301</v>
+        <v>0.2619498372084195</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7403675366098597</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.705419706645557</v>
+        <v>4.287213196028461</v>
       </c>
       <c r="C13">
-        <v>0.9574008048851397</v>
+        <v>1.021574567114243</v>
       </c>
       <c r="D13">
-        <v>0.04601043731419097</v>
+        <v>0.05864637412074813</v>
       </c>
       <c r="E13">
-        <v>0.06407621310860812</v>
+        <v>0.06199183504738848</v>
       </c>
       <c r="F13">
-        <v>1.272702460883721</v>
+        <v>1.04908908195857</v>
       </c>
       <c r="G13">
-        <v>1.168189116331462</v>
+        <v>1.059062054383944</v>
       </c>
       <c r="H13">
-        <v>0.1155590221865879</v>
+        <v>0.1151143681768332</v>
       </c>
       <c r="I13">
-        <v>0.005823736971041882</v>
+        <v>0.005322434029014111</v>
       </c>
       <c r="J13">
-        <v>0.6834830958943883</v>
+        <v>0.4647135995791842</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1871224066697046</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1609447039260026</v>
       </c>
       <c r="N13">
-        <v>0.1642049858418702</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6981824071704423</v>
+        <v>0.1686240190315189</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7838158385219032</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.468967911603556</v>
+        <v>4.097257614604871</v>
       </c>
       <c r="C14">
-        <v>0.9720211113469475</v>
+        <v>1.033727690886366</v>
       </c>
       <c r="D14">
-        <v>0.04962009658992628</v>
+        <v>0.061985434024038</v>
       </c>
       <c r="E14">
-        <v>0.07038622300542663</v>
+        <v>0.06960929191232879</v>
       </c>
       <c r="F14">
-        <v>1.170563960578349</v>
+        <v>0.9760398496177345</v>
       </c>
       <c r="G14">
-        <v>1.057937060379345</v>
+        <v>0.9524867110768014</v>
       </c>
       <c r="H14">
-        <v>0.16440184550612</v>
+        <v>0.1640682071497679</v>
       </c>
       <c r="I14">
-        <v>0.005106400513993137</v>
+        <v>0.004807206782663442</v>
       </c>
       <c r="J14">
-        <v>0.629400114422495</v>
+        <v>0.4525613136036952</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1749626950670162</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1432333498599334</v>
       </c>
       <c r="N14">
-        <v>0.1107815429769161</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7291577325153753</v>
+        <v>0.1142916279238833</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8179225236778151</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.380056234361518</v>
+        <v>4.026168453076139</v>
       </c>
       <c r="C15">
-        <v>0.9705282898111989</v>
+        <v>1.032269756979304</v>
       </c>
       <c r="D15">
-        <v>0.05046677543644051</v>
+        <v>0.06245740701984914</v>
       </c>
       <c r="E15">
-        <v>0.0722630506611015</v>
+        <v>0.07186212959063631</v>
       </c>
       <c r="F15">
-        <v>1.138832070733514</v>
+        <v>0.955122505365523</v>
       </c>
       <c r="G15">
-        <v>1.02483689763001</v>
+        <v>0.9167533844450588</v>
       </c>
       <c r="H15">
-        <v>0.1766993497145251</v>
+        <v>0.1764110371922243</v>
       </c>
       <c r="I15">
-        <v>0.004889324624928193</v>
+        <v>0.00469521996039024</v>
       </c>
       <c r="J15">
-        <v>0.6136349205163327</v>
+        <v>0.455314512810105</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1724546944298844</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1384204530334827</v>
       </c>
       <c r="N15">
-        <v>0.09887338823698144</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7394506577976401</v>
+        <v>0.102245410871042</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8267341967006843</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.107127884476881</v>
+        <v>3.8082601116879</v>
       </c>
       <c r="C16">
-        <v>0.9129309903461262</v>
+        <v>0.9791121831411544</v>
       </c>
       <c r="D16">
-        <v>0.04873363659341123</v>
+        <v>0.05821456963086291</v>
       </c>
       <c r="E16">
-        <v>0.06880724965770391</v>
+        <v>0.0689396315595534</v>
       </c>
       <c r="F16">
-        <v>1.08464176216134</v>
+        <v>0.9325230984284616</v>
       </c>
       <c r="G16">
-        <v>0.9764441524273337</v>
+        <v>0.8397183729270665</v>
       </c>
       <c r="H16">
-        <v>0.1630269931732471</v>
+        <v>0.1629039017699938</v>
       </c>
       <c r="I16">
-        <v>0.003701873572429015</v>
+        <v>0.003818583842938317</v>
       </c>
       <c r="J16">
-        <v>0.5948075110325419</v>
+        <v>0.5085126175642216</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1782964404225069</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1350115406401073</v>
       </c>
       <c r="N16">
-        <v>0.09537270685440546</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7525704164652822</v>
+        <v>0.0994747627748751</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8213595367189228</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.022385836584533</v>
+        <v>3.737402592598016</v>
       </c>
       <c r="C17">
-        <v>0.8612469485807708</v>
+        <v>0.9302507495989119</v>
       </c>
       <c r="D17">
-        <v>0.04542995528777993</v>
+        <v>0.05353602785596223</v>
       </c>
       <c r="E17">
-        <v>0.06203505543017407</v>
+        <v>0.06171592955308469</v>
       </c>
       <c r="F17">
-        <v>1.096776147842064</v>
+        <v>0.9514948506471654</v>
       </c>
       <c r="G17">
-        <v>0.9970304602409215</v>
+        <v>0.8408410354550711</v>
       </c>
       <c r="H17">
-        <v>0.1248189204708723</v>
+        <v>0.1247528366265982</v>
       </c>
       <c r="I17">
-        <v>0.00322398150379577</v>
+        <v>0.003458885899775055</v>
       </c>
       <c r="J17">
-        <v>0.6087427699919488</v>
+        <v>0.5501387366089006</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1893465144269797</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1410563868206829</v>
       </c>
       <c r="N17">
-        <v>0.1187210079188077</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7458562442910548</v>
+        <v>0.1239207289961826</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8018449129563336</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.094639649827286</v>
+        <v>3.795705735698505</v>
       </c>
       <c r="C18">
-        <v>0.8081041991361815</v>
+        <v>0.8808068775376512</v>
       </c>
       <c r="D18">
-        <v>0.04079213483905519</v>
+        <v>0.04792085787784117</v>
       </c>
       <c r="E18">
-        <v>0.05591539906842069</v>
+        <v>0.05416278695325083</v>
       </c>
       <c r="F18">
-        <v>1.17107129880506</v>
+        <v>1.01596075138292</v>
       </c>
       <c r="G18">
-        <v>1.084293812460544</v>
+        <v>0.9045061501080198</v>
       </c>
       <c r="H18">
-        <v>0.07194073307900339</v>
+        <v>0.07188208693595755</v>
       </c>
       <c r="I18">
-        <v>0.002903351483125149</v>
+        <v>0.003109957958868037</v>
       </c>
       <c r="J18">
-        <v>0.6548368824364417</v>
+        <v>0.600899829765396</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2083311154039968</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1577326365980269</v>
       </c>
       <c r="N18">
-        <v>0.1777698320364891</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7262375024369625</v>
+        <v>0.184792513698973</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7695013879502355</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.276866785275843</v>
+        <v>3.945578651627216</v>
       </c>
       <c r="C19">
-        <v>0.7628160773641071</v>
+        <v>0.8402855032320815</v>
       </c>
       <c r="D19">
-        <v>0.03640458466962215</v>
+        <v>0.04269727483307406</v>
       </c>
       <c r="E19">
-        <v>0.05714002287974052</v>
+        <v>0.05308954501936491</v>
       </c>
       <c r="F19">
-        <v>1.286366389622486</v>
+        <v>1.110368876148598</v>
       </c>
       <c r="G19">
-        <v>1.215959136214053</v>
+        <v>1.007612159530353</v>
       </c>
       <c r="H19">
-        <v>0.02703064559347723</v>
+        <v>0.02694051562313149</v>
       </c>
       <c r="I19">
-        <v>0.003227756478047183</v>
+        <v>0.003413853919307819</v>
       </c>
       <c r="J19">
-        <v>0.7217654662714779</v>
+        <v>0.6588204790068772</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.232267531771285</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1817215667918255</v>
       </c>
       <c r="N19">
-        <v>0.2770079579332503</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7075436049954185</v>
+        <v>0.2865007651177223</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.73700109522931</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.78741153062299</v>
+        <v>4.370746484712186</v>
       </c>
       <c r="C20">
-        <v>0.7333091277259598</v>
+        <v>0.8191478030744292</v>
       </c>
       <c r="D20">
-        <v>0.03212598633071906</v>
+        <v>0.03761171340056535</v>
       </c>
       <c r="E20">
-        <v>0.07765756708837124</v>
+        <v>0.0690700872439276</v>
       </c>
       <c r="F20">
-        <v>1.525239874230067</v>
+        <v>1.295730544572976</v>
       </c>
       <c r="G20">
-        <v>1.481535458579856</v>
+        <v>1.230210876396512</v>
       </c>
       <c r="H20">
-        <v>0.002538635724756766</v>
+        <v>0.002231217481923231</v>
       </c>
       <c r="I20">
-        <v>0.00466046817223198</v>
+        <v>0.004565538342384379</v>
       </c>
       <c r="J20">
-        <v>0.8517159372151184</v>
+        <v>0.7382034929592294</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2699073189892189</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2290487639111447</v>
       </c>
       <c r="N20">
-        <v>0.4841441835222895</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6853640437266408</v>
+        <v>0.4975278467952791</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.694475705693165</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.423581848471088</v>
+        <v>4.86860491402382</v>
       </c>
       <c r="C21">
-        <v>0.8133644411969669</v>
+        <v>0.8940694989946678</v>
       </c>
       <c r="D21">
-        <v>0.0326681360292298</v>
+        <v>0.04097911776642249</v>
       </c>
       <c r="E21">
-        <v>0.08688810792883928</v>
+        <v>0.07697339940441594</v>
       </c>
       <c r="F21">
-        <v>1.702455995127849</v>
+        <v>1.385439652310922</v>
       </c>
       <c r="G21">
-        <v>1.658951885143892</v>
+        <v>1.467800237774185</v>
       </c>
       <c r="H21">
-        <v>0.0050999304249707</v>
+        <v>0.004217569070364302</v>
       </c>
       <c r="I21">
-        <v>0.007931129164369111</v>
+        <v>0.006984831755098675</v>
       </c>
       <c r="J21">
-        <v>0.9304201385752151</v>
+        <v>0.6239623531592002</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2658680442415005</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2510371561825551</v>
       </c>
       <c r="N21">
-        <v>0.561538083056135</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6464459128432765</v>
+        <v>0.5729762645164556</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6686918195108689</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.832979079756456</v>
+        <v>5.183046880427412</v>
       </c>
       <c r="C22">
-        <v>0.8666998719787955</v>
+        <v>0.9421828612447598</v>
       </c>
       <c r="D22">
-        <v>0.03309626059695603</v>
+        <v>0.04350718545353871</v>
       </c>
       <c r="E22">
-        <v>0.09175103719976541</v>
+        <v>0.0812326857118002</v>
       </c>
       <c r="F22">
-        <v>1.815154828147698</v>
+        <v>1.437828172651479</v>
       </c>
       <c r="G22">
-        <v>1.770983536226396</v>
+        <v>1.631000773400558</v>
       </c>
       <c r="H22">
-        <v>0.007233341917776914</v>
+        <v>0.005852405119533</v>
       </c>
       <c r="I22">
-        <v>0.01033495549302366</v>
+        <v>0.008573318864144142</v>
       </c>
       <c r="J22">
-        <v>0.9799535446798586</v>
+        <v>0.5465213656186592</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.261920588900459</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2644184377870431</v>
       </c>
       <c r="N22">
-        <v>0.6016890507186332</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6216581291062644</v>
+        <v>0.6113554477685028</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6543256164151785</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.622545814939031</v>
+        <v>5.030115507412177</v>
       </c>
       <c r="C23">
-        <v>0.8361488143149529</v>
+        <v>0.9167397965744044</v>
       </c>
       <c r="D23">
-        <v>0.03279881611565827</v>
+        <v>0.04181317672169982</v>
       </c>
       <c r="E23">
-        <v>0.0893005991046234</v>
+        <v>0.07900420374229356</v>
       </c>
       <c r="F23">
-        <v>1.759334443397975</v>
+        <v>1.419311591902286</v>
       </c>
       <c r="G23">
-        <v>1.716207797768277</v>
+        <v>1.536444064255107</v>
       </c>
       <c r="H23">
-        <v>0.006067186615007047</v>
+        <v>0.004974175329481412</v>
       </c>
       <c r="I23">
-        <v>0.008746010184619735</v>
+        <v>0.007385996142910578</v>
       </c>
       <c r="J23">
-        <v>0.9560261014795799</v>
+        <v>0.6061604595898302</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2660193925949557</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2595992060849781</v>
       </c>
       <c r="N23">
-        <v>0.5799975439520466</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6349308422495978</v>
+        <v>0.5909786974891631</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.66025821850873</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.814896095304448</v>
+        <v>4.394297931426422</v>
       </c>
       <c r="C24">
-        <v>0.7249545480985944</v>
+        <v>0.8109301375419875</v>
       </c>
       <c r="D24">
-        <v>0.03174965970599253</v>
+        <v>0.03699608400961196</v>
       </c>
       <c r="E24">
-        <v>0.0798972826819373</v>
+        <v>0.07095162643690323</v>
       </c>
       <c r="F24">
-        <v>1.544202439261667</v>
+        <v>1.311863071418799</v>
       </c>
       <c r="G24">
-        <v>1.503790699787942</v>
+        <v>1.247704602580541</v>
       </c>
       <c r="H24">
-        <v>0.002517396230039104</v>
+        <v>0.002199848974417495</v>
       </c>
       <c r="I24">
-        <v>0.004250666129541614</v>
+        <v>0.004043939218595582</v>
       </c>
       <c r="J24">
-        <v>0.8630034944965814</v>
+        <v>0.7489521296207045</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.27455671281664</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2336494249685259</v>
       </c>
       <c r="N24">
-        <v>0.4987507194729091</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.686394605571083</v>
+        <v>0.5124600389016933</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6921118652100908</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.948178272922917</v>
+        <v>3.626434506444014</v>
       </c>
       <c r="C25">
-        <v>0.606944200401216</v>
+        <v>0.6721972397358513</v>
       </c>
       <c r="D25">
-        <v>0.03053647014393412</v>
+        <v>0.03386481245015105</v>
       </c>
       <c r="E25">
-        <v>0.06993779219560103</v>
+        <v>0.06309375730548794</v>
       </c>
       <c r="F25">
-        <v>1.318802666910841</v>
+        <v>1.137359585939919</v>
       </c>
       <c r="G25">
-        <v>1.281062475389774</v>
+        <v>1.065614992450435</v>
       </c>
       <c r="H25">
-        <v>0.0003694994092484638</v>
+        <v>0.0003735652739709217</v>
       </c>
       <c r="I25">
-        <v>0.00154868907843575</v>
+        <v>0.001810787055635643</v>
       </c>
       <c r="J25">
-        <v>0.7660891372402148</v>
+        <v>0.6924291479593023</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2721327646451712</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1960526404948695</v>
       </c>
       <c r="N25">
-        <v>0.4119664619656334</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7445217129653097</v>
+        <v>0.4245417086156067</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7375926976385898</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
